--- a/data/long_dif/P23_10-Estudios-long_dif.xlsx
+++ b/data/long_dif/P23_10-Estudios-long_dif.xlsx
@@ -37,7 +37,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -63,6 +63,13 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin"/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
     <border>
@@ -497,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H27"/>
+  <dimension ref="A1:N44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -516,6 +523,12 @@
     <col width="14" customWidth="1" min="6" max="6"/>
     <col width="14" customWidth="1" min="7" max="7"/>
     <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -531,18 +544,24 @@
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
-      <c r="E1" s="3" t="inlineStr">
-        <is>
-          <t>Mujer</t>
-        </is>
-      </c>
+      <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
       <c r="G1" s="3" t="inlineStr">
         <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -559,22 +578,52 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
+          <t>M5-M4</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2-Mz1</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>M3-M2</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>M4-M3</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>M5-M4</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2-Mz1</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M3-M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
         <is>
           <t>M4-M3</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>M5-M4</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2-Mz1</t>
         </is>
       </c>
     </row>
@@ -587,6 +636,12 @@
       <c r="F3" s="2" t="n"/>
       <c r="G3" s="2" t="n"/>
       <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -596,37 +651,67 @@
       </c>
       <c r="B4" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>Más diferencia negativa</t>
         </is>
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>27,96%</t>
+          <t>24,74%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>28,1%</t>
+          <t>28,59%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>21,67%</t>
+          <t>24,3%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>24,57%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>24,56%</t>
+          <t>20,19%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>26,23%</t>
+          <t>24,73%</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>23,32%</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>22,21%</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>26,53%</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>23,76%</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -639,32 +724,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>19,36; 38,23</t>
+          <t>16,06; 34,52</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>21,04; 42,06</t>
+          <t>20,95; 44,43</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>15,99; 29,71</t>
+          <t>15,01; 35,07</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>19,12; 30,21</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>19,49; 29,94</t>
+          <t>13,9; 29,31</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>21,58; 33,2</t>
+          <t>19,72; 31,07</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>16,56; 34,13</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>17,1; 28,86</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>22,0; 34,6</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>18,22; 31,13</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -672,37 +787,67 @@
       <c r="A6" s="1" t="n"/>
       <c r="B6" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Igual diferencia Cero</t>
         </is>
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>47,84%</t>
+          <t>49,27%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>48,69%</t>
+          <t>47,75%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>46,97%</t>
+          <t>37,16%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>57,14%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>47,37%</t>
+          <t>49,36%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>53,16%</t>
+          <t>56,79%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>52,59%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>49,32%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>52,58%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>45,65%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -715,32 +860,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>36,64; 61,23</t>
+          <t>38,06; 65,1</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>39,45; 56,51</t>
+          <t>37,58; 55,21</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>39,27; 55,27</t>
+          <t>23,75; 47,89</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>50,76; 63,26</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>41,33; 55,42</t>
+          <t>39,83; 57,82</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>47,44; 58,77</t>
+          <t>50,26; 62,88</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>43,5; 61,62</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>41,76; 57,73</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>46,36; 57,84</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>35,53; 53,1</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -748,37 +923,67 @@
       <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>Menos Diferencia Positiva</t>
         </is>
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>24,19%</t>
+          <t>25,98%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>23,21%</t>
+          <t>23,65%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>31,36%</t>
+          <t>38,54%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>18,29%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>28,07%</t>
+          <t>30,45%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>20,61%</t>
+          <t>18,48%</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>24,09%</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>28,47%</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>20,89%</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>30,59%</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -791,74 +996,130 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>16,49; 32,06</t>
+          <t>15,87; 35,1</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>17,06; 30,0</t>
+          <t>17,67; 31,13</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>24,59; 38,33</t>
+          <t>25,53; 59,75</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>13,97; 23,81</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>22,65; 33,49</t>
+          <t>22,57; 38,48</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>16,96; 24,48</t>
+          <t>14,04; 23,63</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>17,72; 32,83</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>21,67; 34,63</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>17,03; 24,95</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>23,83; 44,46</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="inlineStr">
-        <is>
-          <t>Secundaria o FP grado sup</t>
-        </is>
-      </c>
+      <c r="A10" s="1" t="n"/>
       <c r="B10" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>29,66%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>24,17%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>27,66%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>18,31%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>28,67%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>21,31%</t>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -871,70 +1132,134 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>24,93; 34,82</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>19,61; 30,09</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>23,49; 32,3</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>15,21; 22,19</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>25,4; 32,44</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>18,17; 24,63</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="n"/>
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Secundaria o FP grado sup</t>
+        </is>
+      </c>
       <c r="B12" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Más diferencia negativa</t>
         </is>
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>50,52%</t>
+          <t>27,35%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>52,5%</t>
+          <t>24,08%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>52,7%</t>
+          <t>23,02%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>61,83%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>51,6%</t>
+          <t>28,6%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>57,05%</t>
+          <t>18,37%</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>21,09%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>27,99%</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>21,3%</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>22,08%</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -947,32 +1272,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>44,5; 56,04</t>
+          <t>22,09; 32,97</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>47,05; 57,69</t>
+          <t>19,73; 30,13</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>47,83; 57,64</t>
+          <t>17,62; 28,87</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>57,88; 66,12</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>47,67; 55,32</t>
+          <t>23,9; 33,97</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>53,11; 60,35</t>
+          <t>15,08; 21,74</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>16,65; 25,62</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>24,3; 31,88</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>18,64; 24,88</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>18,57; 25,72</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -980,37 +1335,67 @@
       <c r="A14" s="1" t="n"/>
       <c r="B14" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>Igual diferencia Cero</t>
         </is>
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>19,83%</t>
+          <t>49,37%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>23,33%</t>
+          <t>51,47%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>19,64%</t>
+          <t>51,41%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>19,86%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>19,74%</t>
+          <t>51,39%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>21,64%</t>
+          <t>61,94%</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>56,49%</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>50,39%</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>56,56%</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>53,88%</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1023,74 +1408,130 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>15,8; 25,58</t>
+          <t>42,82; 56,67</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>19,41; 27,78</t>
+          <t>46,28; 57,0</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>16,29; 23,83</t>
+          <t>44,07; 57,64</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>16,71; 23,47</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>17,09; 23,16</t>
+          <t>45,99; 56,95</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>18,81; 24,77</t>
+          <t>58,16; 65,77</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>50,47; 62,02</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>45,76; 54,73</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>53,16; 59,95</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>49,01; 58,37</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>Estudios universitarios o más</t>
-        </is>
-      </c>
+      <c r="A16" s="1" t="n"/>
       <c r="B16" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>Menos Diferencia Positiva</t>
         </is>
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>20,42%</t>
+          <t>23,28%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>23,4%</t>
+          <t>24,46%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>21,94%</t>
+          <t>25,57%</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>17,04%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>21,19%</t>
+          <t>20,01%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>20,1%</t>
+          <t>19,69%</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>22,42%</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>21,63%</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>22,14%</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>24,04%</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1103,32 +1544,62 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>15,71; 25,53</t>
+          <t>18,09; 30,29</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>18,31; 28,92</t>
+          <t>20,18; 29,52</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>17,46; 26,53</t>
+          <t>20,01; 33,94</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>13,87; 20,38</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>18,19; 24,71</t>
+          <t>16,43; 24,42</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>17,3; 23,5</t>
+          <t>16,39; 23,22</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>18,46; 27,56</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>18,68; 25,85</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>19,42; 24,81</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>20,4; 28,84</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1136,37 +1607,67 @@
       <c r="A18" s="1" t="n"/>
       <c r="B18" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>54,74%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>59,92%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>59,33%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>59,68%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>57,06%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>59,8%</t>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1179,70 +1680,134 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>48,65; 61,45</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>54,39; 65,38</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>53,53; 64,55</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>55,27; 64,97</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>52,82; 61,23</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>56,31; 63,35</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="1" t="n"/>
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>Estudios universitarios o más</t>
+        </is>
+      </c>
       <c r="B20" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>Más diferencia negativa</t>
         </is>
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>24,83%</t>
+          <t>20,72%</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>16,68%</t>
+          <t>23,7%</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>18,73%</t>
+          <t>22,43%</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>23,28%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>21,76%</t>
+          <t>22,79%</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>20,11%</t>
+          <t>17,53%</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>19,71%</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>21,79%</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>20,51%</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>21,02%</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1255,74 +1820,130 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>19,69; 31,34</t>
+          <t>15,87; 26,41</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>12,82; 20,63</t>
+          <t>19,08; 29,48</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>14,97; 23,54</t>
+          <t>17,86; 28,98</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>19,33; 27,56</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>18,2; 25,41</t>
+          <t>18,36; 27,62</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>17,22; 22,95</t>
+          <t>14,02; 21,29</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>15,89; 24,81</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>18,71; 25,32</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>17,59; 24,0</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>17,65; 24,47</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="A22" s="1" t="n"/>
       <c r="B22" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>Igual diferencia Cero</t>
         </is>
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>26,29%</t>
+          <t>52,88%</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>24,74%</t>
+          <t>59,49%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>24,53%</t>
+          <t>53,62%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>19,31%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>25,4%</t>
+          <t>59,18%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>21,99%</t>
+          <t>59,35%</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>60,42%</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>56,13%</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>59,42%</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>57,15%</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1335,32 +1956,62 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>23,13; 30,03</t>
+          <t>45,16; 59,13</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>21,76; 29,02</t>
+          <t>53,63; 64,79</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>21,73; 27,5</t>
+          <t>45,48; 60,37</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>17,49; 21,77</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>23,27; 27,94</t>
+          <t>53,15; 64,65</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>20,02; 24,46</t>
+          <t>54,96; 63,86</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>55,42; 65,51</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>51,71; 60,65</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>55,86; 62,78</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>52,59; 61,61</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1368,37 +2019,67 @@
       <c r="A24" s="1" t="n"/>
       <c r="B24" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Menos Diferencia Positiva</t>
         </is>
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>51,43%</t>
+          <t>26,4%</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>54,05%</t>
+          <t>16,8%</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>53,67%</t>
+          <t>23,95%</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>60,06%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>52,56%</t>
+          <t>18,03%</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>57,09%</t>
+          <t>23,12%</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>19,87%</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>22,09%</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>20,07%</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>21,83%</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1411,32 +2092,62 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>47,28; 55,5</t>
+          <t>20,49; 33,87</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>49,98; 57,28</t>
+          <t>13,07; 21,19</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>50,44; 57,01</t>
+          <t>18,8; 32,85</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>57,05; 62,79</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>49,85; 55,0</t>
+          <t>13,81; 22,81</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>54,73; 59,38</t>
+          <t>19,54; 27,24</t>
+        </is>
+      </c>
+      <c r="I25" s="2" t="inlineStr">
+        <is>
+          <t>15,88; 24,5</t>
+        </is>
+      </c>
+      <c r="J25" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K25" s="2" t="inlineStr">
+        <is>
+          <t>18,25; 26,23</t>
+        </is>
+      </c>
+      <c r="L25" s="2" t="inlineStr">
+        <is>
+          <t>17,68; 22,82</t>
+        </is>
+      </c>
+      <c r="M25" s="2" t="inlineStr">
+        <is>
+          <t>18,1; 26,23</t>
+        </is>
+      </c>
+      <c r="N25" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1444,37 +2155,67 @@
       <c r="A26" s="1" t="n"/>
       <c r="B26" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>22,28%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>21,21%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>21,8%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>20,63%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>22,04%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>20,92%</t>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="I26" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="J26" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K26" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="L26" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="M26" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="N26" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1487,45 +2228,1179 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>19,04; 25,47</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>18,59; 24,0</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>19,34; 24,56</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>18,2; 22,83</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>20,0; 24,17</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>19,35; 22,72</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="inlineStr">
+        <is>
+          <t>No Pertenece a Medición</t>
+        </is>
+      </c>
+      <c r="B28" s="3" t="inlineStr">
+        <is>
+          <t>Más diferencia negativa</t>
+        </is>
+      </c>
+      <c r="C28" s="2" t="inlineStr">
+        <is>
+          <t>29,85%</t>
+        </is>
+      </c>
+      <c r="D28" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="E28" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="F28" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="G28" s="2" t="inlineStr">
+        <is>
+          <t>20,85%</t>
+        </is>
+      </c>
+      <c r="H28" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I28" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J28" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K28" s="2" t="inlineStr">
+        <is>
+          <t>25,69%</t>
+        </is>
+      </c>
+      <c r="L28" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M28" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N28" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n"/>
+      <c r="B29" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C29" s="2" t="inlineStr">
+        <is>
+          <t>22,31; 38,13</t>
+        </is>
+      </c>
+      <c r="D29" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E29" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F29" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G29" s="2" t="inlineStr">
+        <is>
+          <t>14,79; 27,49</t>
+        </is>
+      </c>
+      <c r="H29" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I29" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J29" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K29" s="2" t="inlineStr">
+        <is>
+          <t>20,68; 31,25</t>
+        </is>
+      </c>
+      <c r="L29" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M29" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N29" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n"/>
+      <c r="B30" s="3" t="inlineStr">
+        <is>
+          <t>Igual diferencia Cero</t>
+        </is>
+      </c>
+      <c r="C30" s="2" t="inlineStr">
+        <is>
+          <t>55,17%</t>
+        </is>
+      </c>
+      <c r="D30" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="E30" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="F30" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="G30" s="2" t="inlineStr">
+        <is>
+          <t>53,61%</t>
+        </is>
+      </c>
+      <c r="H30" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I30" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J30" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K30" s="2" t="inlineStr">
+        <is>
+          <t>54,45%</t>
+        </is>
+      </c>
+      <c r="L30" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M30" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N30" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n"/>
+      <c r="B31" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C31" s="2" t="inlineStr">
+        <is>
+          <t>46,68; 64,31</t>
+        </is>
+      </c>
+      <c r="D31" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E31" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F31" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G31" s="2" t="inlineStr">
+        <is>
+          <t>45,07; 61,78</t>
+        </is>
+      </c>
+      <c r="H31" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I31" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J31" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K31" s="2" t="inlineStr">
+        <is>
+          <t>48,44; 61,13</t>
+        </is>
+      </c>
+      <c r="L31" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M31" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N31" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n"/>
+      <c r="B32" s="3" t="inlineStr">
+        <is>
+          <t>Menos Diferencia Positiva</t>
+        </is>
+      </c>
+      <c r="C32" s="2" t="inlineStr">
+        <is>
+          <t>14,98%</t>
+        </is>
+      </c>
+      <c r="D32" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="E32" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="F32" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="G32" s="2" t="inlineStr">
+        <is>
+          <t>25,54%</t>
+        </is>
+      </c>
+      <c r="H32" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I32" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J32" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K32" s="2" t="inlineStr">
+        <is>
+          <t>19,87%</t>
+        </is>
+      </c>
+      <c r="L32" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M32" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N32" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n"/>
+      <c r="B33" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C33" s="2" t="inlineStr">
+        <is>
+          <t>9,67; 20,7</t>
+        </is>
+      </c>
+      <c r="D33" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E33" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F33" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G33" s="2" t="inlineStr">
+        <is>
+          <t>19,29; 32,8</t>
+        </is>
+      </c>
+      <c r="H33" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I33" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J33" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K33" s="2" t="inlineStr">
+        <is>
+          <t>15,74; 25,13</t>
+        </is>
+      </c>
+      <c r="L33" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M33" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N33" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n"/>
+      <c r="B34" s="3" t="inlineStr">
+        <is>
+          <t>No Pertenece a Medición</t>
+        </is>
+      </c>
+      <c r="C34" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="D34" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="E34" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="F34" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="G34" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="H34" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I34" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J34" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K34" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="L34" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M34" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N34" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n"/>
+      <c r="B35" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B36" s="3" t="inlineStr">
+        <is>
+          <t>Más diferencia negativa</t>
+        </is>
+      </c>
+      <c r="C36" s="2" t="inlineStr">
+        <is>
+          <t>25,67%</t>
+        </is>
+      </c>
+      <c r="D36" s="2" t="inlineStr">
+        <is>
+          <t>24,87%</t>
+        </is>
+      </c>
+      <c r="E36" s="2" t="inlineStr">
+        <is>
+          <t>23,07%</t>
+        </is>
+      </c>
+      <c r="F36" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="G36" s="2" t="inlineStr">
+        <is>
+          <t>24,3%</t>
+        </is>
+      </c>
+      <c r="H36" s="2" t="inlineStr">
+        <is>
+          <t>19,52%</t>
+        </is>
+      </c>
+      <c r="I36" s="2" t="inlineStr">
+        <is>
+          <t>21,11%</t>
+        </is>
+      </c>
+      <c r="J36" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K36" s="2" t="inlineStr">
+        <is>
+          <t>24,98%</t>
+        </is>
+      </c>
+      <c r="L36" s="2" t="inlineStr">
+        <is>
+          <t>22,16%</t>
+        </is>
+      </c>
+      <c r="M36" s="2" t="inlineStr">
+        <is>
+          <t>22,07%</t>
+        </is>
+      </c>
+      <c r="N36" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="n"/>
+      <c r="B37" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C37" s="2" t="inlineStr">
+        <is>
+          <t>22,26; 28,75</t>
+        </is>
+      </c>
+      <c r="D37" s="2" t="inlineStr">
+        <is>
+          <t>21,74; 28,99</t>
+        </is>
+      </c>
+      <c r="E37" s="2" t="inlineStr">
+        <is>
+          <t>19,77; 27,14</t>
+        </is>
+      </c>
+      <c r="F37" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G37" s="2" t="inlineStr">
+        <is>
+          <t>21,51; 27,63</t>
+        </is>
+      </c>
+      <c r="H37" s="2" t="inlineStr">
+        <is>
+          <t>17,47; 21,95</t>
+        </is>
+      </c>
+      <c r="I37" s="2" t="inlineStr">
+        <is>
+          <t>18,3; 24,38</t>
+        </is>
+      </c>
+      <c r="J37" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K37" s="2" t="inlineStr">
+        <is>
+          <t>22,82; 27,51</t>
+        </is>
+      </c>
+      <c r="L37" s="2" t="inlineStr">
+        <is>
+          <t>20,26; 24,66</t>
+        </is>
+      </c>
+      <c r="M37" s="2" t="inlineStr">
+        <is>
+          <t>19,73; 24,86</t>
+        </is>
+      </c>
+      <c r="N37" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="n"/>
+      <c r="B38" s="3" t="inlineStr">
+        <is>
+          <t>Igual diferencia Cero</t>
+        </is>
+      </c>
+      <c r="C38" s="2" t="inlineStr">
+        <is>
+          <t>51,52%</t>
+        </is>
+      </c>
+      <c r="D38" s="2" t="inlineStr">
+        <is>
+          <t>53,29%</t>
+        </is>
+      </c>
+      <c r="E38" s="2" t="inlineStr">
+        <is>
+          <t>49,4%</t>
+        </is>
+      </c>
+      <c r="F38" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="G38" s="2" t="inlineStr">
+        <is>
+          <t>53,71%</t>
+        </is>
+      </c>
+      <c r="H38" s="2" t="inlineStr">
+        <is>
+          <t>59,91%</t>
+        </is>
+      </c>
+      <c r="I38" s="2" t="inlineStr">
+        <is>
+          <t>57,0%</t>
+        </is>
+      </c>
+      <c r="J38" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K38" s="2" t="inlineStr">
+        <is>
+          <t>52,63%</t>
+        </is>
+      </c>
+      <c r="L38" s="2" t="inlineStr">
+        <is>
+          <t>56,64%</t>
+        </is>
+      </c>
+      <c r="M38" s="2" t="inlineStr">
+        <is>
+          <t>53,28%</t>
+        </is>
+      </c>
+      <c r="N38" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="n"/>
+      <c r="B39" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C39" s="2" t="inlineStr">
+        <is>
+          <t>47,51; 55,89</t>
+        </is>
+      </c>
+      <c r="D39" s="2" t="inlineStr">
+        <is>
+          <t>49,68; 56,82</t>
+        </is>
+      </c>
+      <c r="E39" s="2" t="inlineStr">
+        <is>
+          <t>43,78; 53,74</t>
+        </is>
+      </c>
+      <c r="F39" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G39" s="2" t="inlineStr">
+        <is>
+          <t>50,51; 57,45</t>
+        </is>
+      </c>
+      <c r="H39" s="2" t="inlineStr">
+        <is>
+          <t>57,18; 62,63</t>
+        </is>
+      </c>
+      <c r="I39" s="2" t="inlineStr">
+        <is>
+          <t>53,42; 60,56</t>
+        </is>
+      </c>
+      <c r="J39" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K39" s="2" t="inlineStr">
+        <is>
+          <t>49,92; 55,28</t>
+        </is>
+      </c>
+      <c r="L39" s="2" t="inlineStr">
+        <is>
+          <t>54,24; 58,94</t>
+        </is>
+      </c>
+      <c r="M39" s="2" t="inlineStr">
+        <is>
+          <t>49,78; 56,13</t>
+        </is>
+      </c>
+      <c r="N39" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="n"/>
+      <c r="B40" s="3" t="inlineStr">
+        <is>
+          <t>Menos Diferencia Positiva</t>
+        </is>
+      </c>
+      <c r="C40" s="2" t="inlineStr">
+        <is>
+          <t>22,81%</t>
+        </is>
+      </c>
+      <c r="D40" s="2" t="inlineStr">
+        <is>
+          <t>21,84%</t>
+        </is>
+      </c>
+      <c r="E40" s="2" t="inlineStr">
+        <is>
+          <t>27,53%</t>
+        </is>
+      </c>
+      <c r="F40" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="G40" s="2" t="inlineStr">
+        <is>
+          <t>21,99%</t>
+        </is>
+      </c>
+      <c r="H40" s="2" t="inlineStr">
+        <is>
+          <t>20,56%</t>
+        </is>
+      </c>
+      <c r="I40" s="2" t="inlineStr">
+        <is>
+          <t>21,9%</t>
+        </is>
+      </c>
+      <c r="J40" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K40" s="2" t="inlineStr">
+        <is>
+          <t>22,39%</t>
+        </is>
+      </c>
+      <c r="L40" s="2" t="inlineStr">
+        <is>
+          <t>21,19%</t>
+        </is>
+      </c>
+      <c r="M40" s="2" t="inlineStr">
+        <is>
+          <t>24,65%</t>
+        </is>
+      </c>
+      <c r="N40" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="n"/>
+      <c r="B41" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C41" s="2" t="inlineStr">
+        <is>
+          <t>19,87; 26,93</t>
+        </is>
+      </c>
+      <c r="D41" s="2" t="inlineStr">
+        <is>
+          <t>19,37; 25,21</t>
+        </is>
+      </c>
+      <c r="E41" s="2" t="inlineStr">
+        <is>
+          <t>23,31; 34,76</t>
+        </is>
+      </c>
+      <c r="F41" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G41" s="2" t="inlineStr">
+        <is>
+          <t>19,47; 24,64</t>
+        </is>
+      </c>
+      <c r="H41" s="2" t="inlineStr">
+        <is>
+          <t>18,47; 22,9</t>
+        </is>
+      </c>
+      <c r="I41" s="2" t="inlineStr">
+        <is>
+          <t>19,16; 25,01</t>
+        </is>
+      </c>
+      <c r="J41" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K41" s="2" t="inlineStr">
+        <is>
+          <t>20,38; 24,71</t>
+        </is>
+      </c>
+      <c r="L41" s="2" t="inlineStr">
+        <is>
+          <t>19,49; 23,05</t>
+        </is>
+      </c>
+      <c r="M41" s="2" t="inlineStr">
+        <is>
+          <t>22,17; 28,38</t>
+        </is>
+      </c>
+      <c r="N41" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="n"/>
+      <c r="B42" s="3" t="inlineStr">
+        <is>
+          <t>No Pertenece a Medición</t>
+        </is>
+      </c>
+      <c r="C42" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="D42" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="E42" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="F42" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="G42" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="H42" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="I42" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="J42" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K42" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="L42" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="M42" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="N42" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="n"/>
+      <c r="B43" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="A22:A27"/>
-    <mergeCell ref="A4:A9"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="A16:A21"/>
-    <mergeCell ref="A10:A15"/>
+  <mergeCells count="9">
+    <mergeCell ref="A4:A11"/>
+    <mergeCell ref="A12:A19"/>
+    <mergeCell ref="A20:A27"/>
     <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A28:A35"/>
+    <mergeCell ref="A36:A43"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/long_dif/P23_10-Estudios-long_dif.xlsx
+++ b/data/long_dif/P23_10-Estudios-long_dif.xlsx
@@ -656,7 +656,7 @@
       </c>
       <c r="B4" s="3" t="inlineStr">
         <is>
-          <t>Más diferencia negativa</t>
+          <t>Más</t>
         </is>
       </c>
       <c r="C4" s="5" t="n">
@@ -770,7 +770,7 @@
       <c r="A7" s="1" t="n"/>
       <c r="B7" s="3" t="inlineStr">
         <is>
-          <t>Igual diferencia Cero</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="C7" s="5" t="n">
@@ -884,7 +884,7 @@
       <c r="A10" s="1" t="n"/>
       <c r="B10" s="3" t="inlineStr">
         <is>
-          <t>Menos Diferencia Positiva</t>
+          <t>Menos</t>
         </is>
       </c>
       <c r="C10" s="5" t="n">
@@ -1002,7 +1002,7 @@
       </c>
       <c r="B13" s="3" t="inlineStr">
         <is>
-          <t>Más diferencia negativa</t>
+          <t>Más</t>
         </is>
       </c>
       <c r="C13" s="5" t="n">
@@ -1116,7 +1116,7 @@
       <c r="A16" s="1" t="n"/>
       <c r="B16" s="3" t="inlineStr">
         <is>
-          <t>Igual diferencia Cero</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="C16" s="5" t="n">
@@ -1230,7 +1230,7 @@
       <c r="A19" s="1" t="n"/>
       <c r="B19" s="3" t="inlineStr">
         <is>
-          <t>Menos Diferencia Positiva</t>
+          <t>Menos</t>
         </is>
       </c>
       <c r="C19" s="5" t="n">
@@ -1348,7 +1348,7 @@
       </c>
       <c r="B22" s="3" t="inlineStr">
         <is>
-          <t>Más diferencia negativa</t>
+          <t>Más</t>
         </is>
       </c>
       <c r="C22" s="5" t="n">
@@ -1462,7 +1462,7 @@
       <c r="A25" s="1" t="n"/>
       <c r="B25" s="3" t="inlineStr">
         <is>
-          <t>Igual diferencia Cero</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="C25" s="5" t="n">
@@ -1576,7 +1576,7 @@
       <c r="A28" s="1" t="n"/>
       <c r="B28" s="3" t="inlineStr">
         <is>
-          <t>Menos Diferencia Positiva</t>
+          <t>Menos</t>
         </is>
       </c>
       <c r="C28" s="5" t="n">
@@ -1694,7 +1694,7 @@
       </c>
       <c r="B31" s="3" t="inlineStr">
         <is>
-          <t>Más diferencia negativa</t>
+          <t>Más</t>
         </is>
       </c>
       <c r="C31" s="5" t="n">
@@ -1808,7 +1808,7 @@
       <c r="A34" s="1" t="n"/>
       <c r="B34" s="3" t="inlineStr">
         <is>
-          <t>Igual diferencia Cero</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="C34" s="5" t="n">
@@ -1922,7 +1922,7 @@
       <c r="A37" s="1" t="n"/>
       <c r="B37" s="3" t="inlineStr">
         <is>
-          <t>Menos Diferencia Positiva</t>
+          <t>Menos</t>
         </is>
       </c>
       <c r="C37" s="5" t="n">
